--- a/biology/Zoologie/Ballagascar_insularis/Ballagascar_insularis.xlsx
+++ b/biology/Zoologie/Ballagascar_insularis/Ballagascar_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ballagascar insularis, unique représentant du genre Ballagascar, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ballagascar insularis, unique représentant du genre Ballagascar, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 3,3 mm[2].
-Le mâle décrit par  en mesure 2,40 mm et la femelle 2,60 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 3,3 mm.
+Le mâle décrit par  en mesure 2,40 mm et la femelle 2,60 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Homalattus insularis par Peckham et Peckham en 1885. Elle est placée dans le genre Colaxes par Wesołowska en 2019[4] puis dans le genre Ballagascar par Azarkina et Haddad en 2020[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Homalattus insularis par Peckham et Peckham en 1885. Elle est placée dans le genre Colaxes par Wesołowska en 2019 puis dans le genre Ballagascar par Azarkina et Haddad en 2020.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peckham &amp; Peckham, 1885 : « On some new genera and species of the Attidae, from Madagascar and Central America. » Proceedings of the Natural History Society of Wisconsin, vol. 1885, p. 23-42 (texte intégral).
 Azarkina &amp; Haddad, 2020 : « Partial revision of the Afrotropical Ballini, with the description of seven new genera (Araneae: Salticidae). » Zootaxa, no 4899(1), p. 15-92.</t>
